--- a/public/assets/template/Datang-Template-Import.xlsx
+++ b/public/assets/template/Datang-Template-Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\elampid-mojokerto\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C436E69-46F8-42B5-AFF2-99C20FC33725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6087B4AA-D030-4521-AC39-AC9515C416D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D3689B3-31FF-45D7-BF8D-55D21DA532B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>NO</t>
   </si>
@@ -195,16 +195,25 @@
     <t>JENIS KELAMIN</t>
   </si>
   <si>
-    <t>2023-07-16</t>
-  </si>
-  <si>
-    <t>2023-07-30</t>
-  </si>
-  <si>
-    <t>2023-07-25</t>
-  </si>
-  <si>
-    <t>2023-07-19</t>
+    <t>2023-07-01</t>
+  </si>
+  <si>
+    <t>2023-07-02</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>2023-07-06</t>
+  </si>
+  <si>
+    <t>2023-07-07</t>
   </si>
 </sst>
 </file>
@@ -598,7 +607,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -705,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
@@ -746,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -787,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
@@ -828,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -869,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>44</v>
@@ -910,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>44</v>
